--- a/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/CTO/AMORA, ELISA SUAYAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="588">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1968,6 +1968,15 @@
   </si>
   <si>
     <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>9/29 , 10/1/2023</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>12/27,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2680,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K828" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K831" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3000,11 +3009,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L828"/>
+  <dimension ref="A2:L831"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A661" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="J666" sqref="A9:K828"/>
+      <selection pane="bottomLeft" activeCell="J678" sqref="J678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,7 +3180,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.231999999999971</v>
+        <v>57.731999999999971</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3181,7 +3190,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.791999999999973</v>
+        <v>46.291999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17878,13 +17887,15 @@
       <c r="B664" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C664" s="13"/>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D664" s="39"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H664" s="39">
         <v>1</v>
@@ -17896,10 +17907,10 @@
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B665" s="20"/>
+      <c r="A665" s="40"/>
+      <c r="B665" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="C665" s="13"/>
       <c r="D665" s="39"/>
       <c r="E665" s="9"/>
@@ -17908,36 +17919,50 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H665" s="39"/>
+      <c r="H665" s="39">
+        <v>2</v>
+      </c>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20"/>
+      <c r="K665" s="49" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B666" s="20"/>
-      <c r="C666" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B666" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C666" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D666" s="39"/>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H666" s="39"/>
+      <c r="G666" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H666" s="39">
+        <v>1</v>
+      </c>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="20"/>
+      <c r="K666" s="49">
+        <v>45209</v>
+      </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B667" s="20"/>
+      <c r="A667" s="40"/>
+      <c r="B667" s="20" t="s">
+        <v>572</v>
+      </c>
       <c r="C667" s="13"/>
-      <c r="D667" s="39"/>
+      <c r="D667" s="39">
+        <v>2</v>
+      </c>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
       <c r="G667" s="13" t="str">
@@ -17947,13 +17972,15 @@
       <c r="H667" s="39"/>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="20"/>
+      <c r="K667" s="49" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B668" s="20"/>
+      <c r="A668" s="40"/>
+      <c r="B668" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C668" s="13"/>
       <c r="D668" s="39"/>
       <c r="E668" s="9"/>
@@ -17962,18 +17989,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H668" s="39"/>
+      <c r="H668" s="39">
+        <v>1</v>
+      </c>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="20"/>
+      <c r="K668" s="49">
+        <v>45224</v>
+      </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B669" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B669" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C669" s="13"/>
-      <c r="D669" s="39"/>
+      <c r="D669" s="39">
+        <v>3</v>
+      </c>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
       <c r="G669" s="13" t="str">
@@ -17983,11 +18018,13 @@
       <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20"/>
+      <c r="K669" s="20" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18005,7 +18042,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18023,7 +18060,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18041,7 +18078,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18059,7 +18096,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18077,7 +18114,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18095,7 +18132,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18113,7 +18150,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18131,7 +18168,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18149,7 +18186,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18167,7 +18204,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18185,7 +18222,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18203,7 +18240,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18221,7 +18258,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18239,7 +18276,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18257,7 +18294,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18275,7 +18312,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18293,7 +18330,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18311,7 +18348,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18329,7 +18366,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18347,7 +18384,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18365,7 +18402,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18383,7 +18420,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18401,7 +18438,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18419,7 +18456,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18437,7 +18474,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18455,7 +18492,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18473,7 +18510,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18491,7 +18528,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18509,7 +18546,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18527,7 +18564,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18545,7 +18582,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18563,7 +18600,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18581,7 +18618,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18599,7 +18636,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18617,7 +18654,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18635,7 +18672,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18653,7 +18690,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18671,7 +18708,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18689,7 +18726,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18707,7 +18744,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18725,7 +18762,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18743,7 +18780,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18761,7 +18798,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18779,7 +18816,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46692</v>
+        <v>46600</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18797,7 +18834,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>46722</v>
+        <v>46631</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18815,7 +18852,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18833,7 +18870,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>46784</v>
+        <v>46692</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18851,7 +18888,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>46813</v>
+        <v>46722</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18869,7 +18906,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>46844</v>
+        <v>46753</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18887,7 +18924,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>46874</v>
+        <v>46784</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18905,7 +18942,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>46905</v>
+        <v>46813</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18923,7 +18960,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>46935</v>
+        <v>46844</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18941,7 +18978,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>46966</v>
+        <v>46874</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18959,7 +18996,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>46997</v>
+        <v>46905</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18977,7 +19014,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47027</v>
+        <v>46935</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18995,7 +19032,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47058</v>
+        <v>46966</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19013,7 +19050,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47088</v>
+        <v>46997</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19031,7 +19068,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47119</v>
+        <v>47027</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19049,7 +19086,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47150</v>
+        <v>47058</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19067,7 +19104,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47178</v>
+        <v>47088</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19085,7 +19122,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47209</v>
+        <v>47119</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19103,7 +19140,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47239</v>
+        <v>47150</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19121,7 +19158,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47270</v>
+        <v>47178</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19139,7 +19176,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47300</v>
+        <v>47209</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19157,7 +19194,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47331</v>
+        <v>47239</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19175,7 +19212,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47362</v>
+        <v>47270</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19193,7 +19230,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47392</v>
+        <v>47300</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19211,7 +19248,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47423</v>
+        <v>47331</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19229,7 +19266,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47453</v>
+        <v>47362</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19247,7 +19284,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47484</v>
+        <v>47392</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19265,7 +19302,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47515</v>
+        <v>47423</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19283,7 +19320,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47543</v>
+        <v>47453</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19301,7 +19338,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47574</v>
+        <v>47484</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19319,7 +19356,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47604</v>
+        <v>47515</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19337,7 +19374,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47635</v>
+        <v>47543</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19355,7 +19392,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47665</v>
+        <v>47574</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19373,7 +19410,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>47696</v>
+        <v>47604</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19391,7 +19428,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>47727</v>
+        <v>47635</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19409,7 +19446,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>47757</v>
+        <v>47665</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19427,7 +19464,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>47788</v>
+        <v>47696</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19445,7 +19482,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>47818</v>
+        <v>47727</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19463,7 +19500,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>47849</v>
+        <v>47757</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19481,7 +19518,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>47880</v>
+        <v>47788</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19499,7 +19536,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>47908</v>
+        <v>47818</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19517,7 +19554,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>47939</v>
+        <v>47849</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19535,7 +19572,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>47969</v>
+        <v>47880</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19553,7 +19590,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48000</v>
+        <v>47908</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19571,7 +19608,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48030</v>
+        <v>47939</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19589,7 +19626,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48061</v>
+        <v>47969</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19607,7 +19644,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48092</v>
+        <v>48000</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19625,7 +19662,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48122</v>
+        <v>48030</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19643,7 +19680,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48153</v>
+        <v>48061</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19661,7 +19698,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48183</v>
+        <v>48092</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19679,7 +19716,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48214</v>
+        <v>48122</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19697,7 +19734,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48245</v>
+        <v>48153</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19715,7 +19752,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48274</v>
+        <v>48183</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19733,7 +19770,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48305</v>
+        <v>48214</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19751,7 +19788,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48335</v>
+        <v>48245</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19769,7 +19806,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>48366</v>
+        <v>48274</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19787,7 +19824,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48396</v>
+        <v>48305</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19805,7 +19842,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48427</v>
+        <v>48335</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19823,7 +19860,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48458</v>
+        <v>48366</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19841,7 +19878,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48488</v>
+        <v>48396</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19859,7 +19896,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48519</v>
+        <v>48427</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19877,7 +19914,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>48549</v>
+        <v>48458</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19895,7 +19932,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>48580</v>
+        <v>48488</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19913,7 +19950,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>48611</v>
+        <v>48519</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19931,7 +19968,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>48639</v>
+        <v>48549</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19949,7 +19986,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>48670</v>
+        <v>48580</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19967,7 +20004,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>48700</v>
+        <v>48611</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19985,7 +20022,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>48731</v>
+        <v>48639</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -20003,7 +20040,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>48761</v>
+        <v>48670</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -20021,7 +20058,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>48792</v>
+        <v>48700</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -20039,7 +20076,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>48823</v>
+        <v>48731</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -20057,7 +20094,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>48853</v>
+        <v>48761</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -20075,7 +20112,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>48884</v>
+        <v>48792</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -20093,7 +20130,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>48914</v>
+        <v>48823</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -20111,7 +20148,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>48945</v>
+        <v>48853</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20129,7 +20166,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>48976</v>
+        <v>48884</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20147,7 +20184,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>49004</v>
+        <v>48914</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20165,7 +20202,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>49035</v>
+        <v>48945</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20183,7 +20220,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>49065</v>
+        <v>48976</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20201,7 +20238,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>49096</v>
+        <v>49004</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20219,7 +20256,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49126</v>
+        <v>49035</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20237,7 +20274,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49157</v>
+        <v>49065</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20255,7 +20292,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49188</v>
+        <v>49096</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20273,7 +20310,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49218</v>
+        <v>49126</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20291,7 +20328,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49249</v>
+        <v>49157</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20309,7 +20346,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49279</v>
+        <v>49188</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20327,7 +20364,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>49310</v>
+        <v>49218</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20345,7 +20382,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>49341</v>
+        <v>49249</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20363,7 +20400,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>49369</v>
+        <v>49279</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20381,7 +20418,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>49400</v>
+        <v>49310</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20399,7 +20436,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>49430</v>
+        <v>49341</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20417,7 +20454,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>49461</v>
+        <v>49369</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20435,7 +20472,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>49491</v>
+        <v>49400</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20453,7 +20490,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>49522</v>
+        <v>49430</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20471,7 +20508,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>49553</v>
+        <v>49461</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20489,7 +20526,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>49583</v>
+        <v>49491</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20507,7 +20544,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>49614</v>
+        <v>49522</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20525,7 +20562,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>49644</v>
+        <v>49553</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20543,7 +20580,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>49675</v>
+        <v>49583</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20561,7 +20598,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
-        <v>49706</v>
+        <v>49614</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20579,7 +20616,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
-        <v>49735</v>
+        <v>49644</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20597,7 +20634,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
-        <v>49766</v>
+        <v>49675</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20615,7 +20652,7 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
-        <v>49796</v>
+        <v>49706</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20633,7 +20670,7 @@
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
-        <v>49827</v>
+        <v>49735</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20651,7 +20688,7 @@
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
-        <v>49857</v>
+        <v>49766</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -20669,7 +20706,7 @@
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
-        <v>49888</v>
+        <v>49796</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -20687,7 +20724,7 @@
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
-        <v>49919</v>
+        <v>49827</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -20705,7 +20742,7 @@
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
-        <v>49949</v>
+        <v>49857</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -20723,7 +20760,7 @@
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
-        <v>49980</v>
+        <v>49888</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -20740,7 +20777,9 @@
       <c r="K822" s="20"/>
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A823" s="40"/>
+      <c r="A823" s="40">
+        <v>49919</v>
+      </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
       <c r="D823" s="39"/>
@@ -20756,7 +20795,9 @@
       <c r="K823" s="20"/>
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A824" s="40"/>
+      <c r="A824" s="40">
+        <v>49949</v>
+      </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
       <c r="D824" s="39"/>
@@ -20772,7 +20813,9 @@
       <c r="K824" s="20"/>
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A825" s="40"/>
+      <c r="A825" s="40">
+        <v>49980</v>
+      </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
       <c r="D825" s="39"/>
@@ -20820,20 +20863,68 @@
       <c r="K827" s="20"/>
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A828" s="41"/>
-      <c r="B828" s="15"/>
-      <c r="C828" s="42"/>
-      <c r="D828" s="43"/>
+      <c r="A828" s="40"/>
+      <c r="B828" s="20"/>
+      <c r="C828" s="13"/>
+      <c r="D828" s="39"/>
       <c r="E828" s="9"/>
-      <c r="F828" s="15"/>
-      <c r="G828" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H828" s="43"/>
+      <c r="F828" s="20"/>
+      <c r="G828" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H828" s="39"/>
       <c r="I828" s="9"/>
-      <c r="J828" s="12"/>
-      <c r="K828" s="15"/>
+      <c r="J828" s="11"/>
+      <c r="K828" s="20"/>
+    </row>
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A829" s="40"/>
+      <c r="B829" s="20"/>
+      <c r="C829" s="13"/>
+      <c r="D829" s="39"/>
+      <c r="E829" s="9"/>
+      <c r="F829" s="20"/>
+      <c r="G829" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H829" s="39"/>
+      <c r="I829" s="9"/>
+      <c r="J829" s="11"/>
+      <c r="K829" s="20"/>
+    </row>
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A830" s="40"/>
+      <c r="B830" s="20"/>
+      <c r="C830" s="13"/>
+      <c r="D830" s="39"/>
+      <c r="E830" s="9"/>
+      <c r="F830" s="20"/>
+      <c r="G830" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H830" s="39"/>
+      <c r="I830" s="9"/>
+      <c r="J830" s="11"/>
+      <c r="K830" s="20"/>
+    </row>
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A831" s="41"/>
+      <c r="B831" s="15"/>
+      <c r="C831" s="42"/>
+      <c r="D831" s="43"/>
+      <c r="E831" s="9"/>
+      <c r="F831" s="15"/>
+      <c r="G831" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H831" s="43"/>
+      <c r="I831" s="9"/>
+      <c r="J831" s="12"/>
+      <c r="K831" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
